--- a/medicine/Psychotrope/Au_Café/Au_Café.xlsx
+++ b/medicine/Psychotrope/Au_Café/Au_Café.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au_Caf%C3%A9</t>
+          <t>Au_Café</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au Café est un bâtiment historique construit en 1827 sur les bords du Danube à Bratislava (Pozsony en hongrois, Pressburg en allemand) en Slovaquie, alors dans le royaume de Hongrie au sein de l'empire d'Autriche. Il est pendant près d'un siècle un restaurant et un café renommé jusqu'à son déclin au milieu du XXe siècle. Il ouvre à nouveau en 2003 comme restaurant et café.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au_Caf%C3%A9</t>
+          <t>Au_Café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1827 : Ouverture du Au Café sur les bords du Danude comme établissement de café.
 1857 : le nouveau propriétaire est monsieur Roth puis František Pohl en 1871.
